--- a/tests/NEMO_RULE_CONFIGURATION.xlsx
+++ b/tests/NEMO_RULE_CONFIGURATION.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD46A6-4FC6-C342-A073-ADA491C2BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321F805-A4C8-5A4F-9B80-B6AA52DC4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="2100" windowWidth="24780" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1444,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:I9">
+  <conditionalFormatting sqref="A2:I4 A9:I9 A5:E8 G5:I8 F6:F8">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
